--- a/Mapping_Meta_Edm.xlsx
+++ b/Mapping_Meta_Edm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Dropbox\ITI\Projektmodul\nvtxlsxrdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F992F5-BDA5-417E-A38E-358923E388A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9B8D6E-93A8-4347-8336-8C8BA72ECF6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="927" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produktionen" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="422">
   <si>
     <t>Identifier / geeinigter Name</t>
   </si>
@@ -753,9 +753,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>occured at time</t>
-  </si>
-  <si>
     <t>happened at place</t>
   </si>
   <si>
@@ -834,9 +831,6 @@
     <t>Phys_ID</t>
   </si>
   <si>
-    <t>Digi_ID</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -972,9 +966,6 @@
     <t>Kommentar</t>
   </si>
   <si>
-    <t>rdfs:label</t>
-  </si>
-  <si>
     <t>mtt_a = MTT administrative</t>
   </si>
   <si>
@@ -993,12 +984,6 @@
     <t>label</t>
   </si>
   <si>
-    <t>owl:sameAs;nvto:hasIdentifier</t>
-  </si>
-  <si>
-    <t>skos:prefLabel;rdfs:label</t>
-  </si>
-  <si>
     <t>Stadtname DE ist präferierter Stadtname</t>
   </si>
   <si>
@@ -1059,9 +1044,6 @@
     <t>physical</t>
   </si>
   <si>
-    <t>digital</t>
-  </si>
-  <si>
     <t>condition1</t>
   </si>
   <si>
@@ -1089,9 +1071,6 @@
     <t>IsDigitized</t>
   </si>
   <si>
-    <t>DigiPath</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -1128,9 +1107,6 @@
     <t>skos:note</t>
   </si>
   <si>
-    <t>edm:occuredAt</t>
-  </si>
-  <si>
     <t>dc:identifier</t>
   </si>
   <si>
@@ -1203,9 +1179,6 @@
     <t>dc:source</t>
   </si>
   <si>
-    <t>nvto:isSimilarTo</t>
-  </si>
-  <si>
     <t>dc:creator</t>
   </si>
   <si>
@@ -1227,7 +1200,112 @@
     <t>edm:Place</t>
   </si>
   <si>
-    <t>edm:Timespan</t>
+    <t>Produktion</t>
+  </si>
+  <si>
+    <t>object_type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>edm:type</t>
+  </si>
+  <si>
+    <t>Digitalisat Verknüpft</t>
+  </si>
+  <si>
+    <t>Thumbnail (Vorläufig)</t>
+  </si>
+  <si>
+    <t>Aggregation</t>
+  </si>
+  <si>
+    <t>aggregation</t>
+  </si>
+  <si>
+    <t>ore:Aggregation</t>
+  </si>
+  <si>
+    <t>Inverse</t>
+  </si>
+  <si>
+    <t>edm:WebResource</t>
+  </si>
+  <si>
+    <t>edm:aggregatedCHO</t>
+  </si>
+  <si>
+    <t>edm:isShownAt;edm:hasView</t>
+  </si>
+  <si>
+    <t>provenance?</t>
+  </si>
+  <si>
+    <t>edm:IsShownBy;edm:object</t>
+  </si>
+  <si>
+    <t>skos:preflabel</t>
+  </si>
+  <si>
+    <t>edm:occurredAt</t>
+  </si>
+  <si>
+    <t>occurred at time</t>
+  </si>
+  <si>
+    <t>Projekt ID;Phys_ID</t>
+  </si>
+  <si>
+    <t>edm:isRelatedTo;edm:hasMet</t>
+  </si>
+  <si>
+    <t>edm:isRelatedto;edm:hasMet</t>
+  </si>
+  <si>
+    <t>Master Pfad</t>
+  </si>
+  <si>
+    <t>Master Typ</t>
+  </si>
+  <si>
+    <t>Master Verwendung</t>
+  </si>
+  <si>
+    <t>Webrepräsentation (Vorläufig) Pfad</t>
+  </si>
+  <si>
+    <t>Webrepräsentation Typ</t>
+  </si>
+  <si>
+    <t>Webrepräsentation Verwendung</t>
+  </si>
+  <si>
+    <t>Thumbnail (Vorläufig) Pfad</t>
+  </si>
+  <si>
+    <t>Thumbnail Typ</t>
+  </si>
+  <si>
+    <t>Thumbnail Verwendung</t>
+  </si>
+  <si>
+    <t>Master PDF Pfad</t>
+  </si>
+  <si>
+    <t>Webrepräsentation PDF (Vorläufig) Pfad</t>
+  </si>
+  <si>
+    <t>Digital Master Pfad</t>
+  </si>
+  <si>
+    <t>Digital Master Typ</t>
+  </si>
+  <si>
+    <t>Digital Master Verwendung</t>
+  </si>
+  <si>
+    <t>edm:TimeSpan</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1381,11 +1459,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1419,7 +1508,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1445,6 +1533,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1785,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,13 +1902,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -1822,10 +1917,10 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1833,36 +1928,36 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+        <v>329</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
       <c r="E2"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4"/>
       <c r="J4"/>
     </row>
@@ -1870,12 +1965,12 @@
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
       <c r="I5"/>
       <c r="J5"/>
     </row>
@@ -1883,419 +1978,419 @@
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="18"/>
+        <v>321</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18"/>
+        <v>322</v>
+      </c>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18"/>
+        <v>323</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="18"/>
+        <v>324</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="18"/>
+        <v>325</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="18"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,7 +2403,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2327,13 +2422,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -2342,10 +2437,10 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,30 +2448,30 @@
         <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>331</v>
+        <v>385</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>352</v>
+      <c r="E3" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -2384,24 +2479,24 @@
       <c r="A4" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="3"/>
       <c r="H4" s="13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>295</v>
+      <c r="E5" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -2409,56 +2504,56 @@
       <c r="A6" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E6" s="24" t="s">
-        <v>355</v>
+      <c r="E6" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G6" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>302</v>
+      <c r="E7" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>304</v>
+      <c r="E8" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>390</v>
+      <c r="E9" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G9" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -2471,7 +2566,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2490,13 +2585,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -2505,10 +2600,10 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2516,33 +2611,27 @@
         <v>189</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="24" t="s">
-        <v>331</v>
+        <v>385</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>352</v>
+      <c r="E3" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="G3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H3" s="13"/>
     </row>
@@ -2550,24 +2639,20 @@
       <c r="A4" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="24"/>
+      <c r="E4" s="23"/>
       <c r="H4" s="13" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>295</v>
+      <c r="E5" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="G5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H5" s="13"/>
     </row>
@@ -2575,42 +2660,33 @@
       <c r="A6" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>302</v>
+      <c r="E6" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>304</v>
+      <c r="E7" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="G7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>390</v>
+      <c r="E8" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="G8" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2627,7 +2703,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,13 +2722,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -2661,7 +2737,7 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2669,33 +2745,58 @@
         <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>305</v>
+      </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="B6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2707,7 +2808,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2723,13 +2824,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -2738,7 +2839,7 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2746,35 +2847,58 @@
         <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>305</v>
+      </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>195</v>
       </c>
+      <c r="B5" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="B6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="F6" s="3"/>
+      <c r="G6" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2785,8 +2909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2806,13 +2930,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -2821,10 +2945,10 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,30 +2956,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>331</v>
+        <v>382</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="23" t="s">
-        <v>352</v>
+      <c r="E3" s="22" t="s">
+        <v>345</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -2863,16 +2987,16 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>353</v>
+        <v>261</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>346</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -2880,399 +3004,399 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="23"/>
+        <v>319</v>
+      </c>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>320</v>
+      </c>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="23" t="s">
-        <v>354</v>
+      <c r="E8" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>354</v>
+      <c r="E9" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>355</v>
+      <c r="E10" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>356</v>
+      <c r="E11" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>202</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>356</v>
+      <c r="E12" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>203</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>356</v>
+      <c r="E13" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>204</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="23" t="s">
-        <v>356</v>
+      <c r="E14" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>356</v>
+      <c r="E15" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G15" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>356</v>
+      <c r="E16" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>356</v>
+      <c r="E17" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>208</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>356</v>
+      <c r="E18" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>356</v>
+      <c r="E19" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>210</v>
       </c>
       <c r="G19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="23" t="s">
-        <v>356</v>
+      <c r="E20" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>211</v>
       </c>
       <c r="G20" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>356</v>
+      <c r="E21" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G21" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>356</v>
+      <c r="E22" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>213</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>356</v>
+      <c r="E23" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>356</v>
+      <c r="E24" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>356</v>
+      <c r="E25" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>356</v>
+      <c r="E26" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>216</v>
       </c>
       <c r="G26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>356</v>
+      <c r="E27" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>217</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>356</v>
+      <c r="E28" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>218</v>
       </c>
       <c r="G28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>356</v>
+      <c r="E29" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>356</v>
+      <c r="E30" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>234</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>356</v>
+      <c r="E31" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>235</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>356</v>
+      <c r="E32" s="22" t="s">
+        <v>349</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>202</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="22"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>357</v>
+      <c r="E34" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>236</v>
       </c>
       <c r="G34" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -3280,19 +3404,19 @@
         <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>358</v>
+        <v>238</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>351</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>220</v>
       </c>
       <c r="G35" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -3300,61 +3424,61 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>359</v>
+        <v>238</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>352</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>221</v>
       </c>
       <c r="G36" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>360</v>
+      <c r="E37" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G37" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>360</v>
+      <c r="E38" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>360</v>
+      <c r="E39" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G39" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -3362,36 +3486,36 @@
         <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>332</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>361</v>
+        <v>327</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>354</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G40" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D41" t="s">
-        <v>395</v>
-      </c>
-      <c r="E41" s="23" t="s">
-        <v>362</v>
+        <v>421</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>402</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>237</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -3401,17 +3525,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
@@ -3424,13 +3548,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -3439,30 +3563,30 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
       <c r="H2" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -3470,57 +3594,57 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>331</v>
+        <v>383</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>363</v>
+      <c r="E5" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
       <c r="H6" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="H7" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="H8" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -3528,58 +3652,58 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>364</v>
+        <v>261</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>355</v>
+      <c r="E10" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>355</v>
+      <c r="E11" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>355</v>
+      <c r="E12" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -3587,90 +3711,86 @@
         <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>365</v>
+        <v>262</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="11" t="s">
-        <v>243</v>
-      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="11" t="s">
-        <v>233</v>
-      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>366</v>
+      <c r="E16" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>354</v>
+      <c r="E17" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="F17" s="11" t="s">
         <v>233</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>367</v>
+      <c r="E18" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>367</v>
+      <c r="E19" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3678,605 +3798,596 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="23"/>
+        <v>319</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>320</v>
+      </c>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>368</v>
+      <c r="E22" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>368</v>
+      <c r="E23" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>368</v>
+      <c r="E24" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>368</v>
+      <c r="E25" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>368</v>
+      <c r="E26" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>233</v>
       </c>
       <c r="G26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>368</v>
+      <c r="E27" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>368</v>
+      <c r="E28" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>368</v>
+      <c r="E29" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>207</v>
       </c>
       <c r="G29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>368</v>
+      <c r="E30" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>208</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>368</v>
+      <c r="E31" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>209</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>368</v>
+      <c r="E32" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>210</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>368</v>
+      <c r="E33" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>211</v>
       </c>
       <c r="G33" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>368</v>
+      <c r="E34" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>213</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>368</v>
+      <c r="E35" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>214</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>368</v>
+      <c r="E36" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>210</v>
       </c>
       <c r="G36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>368</v>
+      <c r="E37" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>215</v>
       </c>
       <c r="G37" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>368</v>
+      <c r="E38" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>368</v>
+      <c r="E39" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>217</v>
       </c>
       <c r="G39" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>368</v>
+      <c r="E40" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>212</v>
       </c>
       <c r="G40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>368</v>
+      <c r="E41" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>218</v>
       </c>
       <c r="G41" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>368</v>
+      <c r="E42" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G42" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>368</v>
+      <c r="E43" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>202</v>
       </c>
       <c r="G43" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>368</v>
+      <c r="E44" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G44" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>368</v>
+      <c r="E45" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G45" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E47" s="23" t="s">
-        <v>369</v>
+      <c r="E47" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G47" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>370</v>
+      <c r="E48" s="22" t="s">
+        <v>362</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E49" s="23" t="s">
-        <v>371</v>
+      <c r="E49" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E50" s="23" t="s">
-        <v>371</v>
+      <c r="E50" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>371</v>
+      <c r="E51" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>372</v>
+        <v>262</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G52" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>373</v>
+        <v>262</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G53" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="23"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="23"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C56" t="s">
-        <v>263</v>
-      </c>
-      <c r="E56" s="23"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C57" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>374</v>
+        <v>392</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="H57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>375</v>
+      <c r="C58" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G58" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B59" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C59" t="s">
-        <v>265</v>
-      </c>
-      <c r="E59" s="23"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+      <c r="E59" s="22"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
-      </c>
-      <c r="E60" s="23"/>
+        <v>335</v>
+      </c>
+      <c r="E60" s="22"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E61" s="23" t="s">
-        <v>376</v>
+      <c r="E61" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="F61" s="3"/>
       <c r="G61" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C62" t="s">
-        <v>264</v>
-      </c>
-      <c r="E62" s="23" t="s">
-        <v>377</v>
-      </c>
+      <c r="E62" s="22"/>
       <c r="F62" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G62" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C63" t="s">
-        <v>264</v>
-      </c>
-      <c r="E63" s="23" t="s">
-        <v>373</v>
-      </c>
+      <c r="E63" s="22"/>
       <c r="F63" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G63" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C64" t="s">
-        <v>264</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>378</v>
-      </c>
+      <c r="E64" s="22"/>
       <c r="F64" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G64" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -4284,114 +4395,277 @@
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>263</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>379</v>
+        <v>262</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G65" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E66" s="23"/>
+        <v>338</v>
+      </c>
+      <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="23"/>
+      <c r="E67" s="22"/>
       <c r="H67" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="E69" s="22"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E71" s="22"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E72" s="22"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E74" s="22"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="G75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="G76" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C77" t="s">
+        <v>392</v>
+      </c>
+      <c r="D77" t="s">
+        <v>396</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="G77" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C78" t="s">
+        <v>410</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G78" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E79" s="22"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C80" t="s">
+        <v>392</v>
+      </c>
+      <c r="D80" t="s">
+        <v>396</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G80" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C81" t="s">
+        <v>413</v>
+      </c>
+      <c r="E81" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G81" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E82" s="22"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B83" t="s">
+        <v>327</v>
+      </c>
+      <c r="E83" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G83" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B84" t="s">
         <v>332</v>
       </c>
-      <c r="E68" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G68" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B69" t="s">
-        <v>337</v>
-      </c>
-      <c r="C69" t="s">
-        <v>263</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G69" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B70" t="s">
-        <v>338</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="G84" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B85" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" t="s">
+        <v>383</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="G85" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B86" t="s">
+        <v>388</v>
+      </c>
+      <c r="C86" t="s">
+        <v>404</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="G70" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" t="s">
-        <v>339</v>
-      </c>
-      <c r="E71" s="23"/>
+      <c r="B87" t="s">
+        <v>393</v>
+      </c>
+      <c r="D87" t="s">
+        <v>394</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="G87" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.28515625" bestFit="1" customWidth="1"/>
@@ -4404,13 +4678,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -4419,30 +4693,30 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
       <c r="H2" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -4450,57 +4724,57 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>331</v>
+        <v>383</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>363</v>
+      <c r="E5" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
       <c r="H6" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="H7" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="H8" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4508,58 +4782,58 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>364</v>
+        <v>261</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="23" t="s">
-        <v>355</v>
+      <c r="E10" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>355</v>
+      <c r="E11" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>355</v>
+      <c r="E12" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4567,90 +4841,86 @@
         <v>98</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>376</v>
+        <v>262</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="23" t="s">
-        <v>380</v>
+      <c r="E16" s="22" t="s">
+        <v>372</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>354</v>
+      <c r="E17" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>367</v>
+      <c r="E18" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>367</v>
+      <c r="E19" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -4658,349 +4928,349 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="23"/>
+        <v>319</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>320</v>
+      </c>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>381</v>
+      <c r="E22" s="22" t="s">
+        <v>373</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>382</v>
+      <c r="E23" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G23" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>382</v>
+      <c r="E24" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>368</v>
+      <c r="E25" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>368</v>
+      <c r="E26" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>205</v>
       </c>
       <c r="G26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>368</v>
+      <c r="E27" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>368</v>
+      <c r="E28" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="23" t="s">
-        <v>368</v>
+      <c r="E29" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E30" s="23" t="s">
-        <v>368</v>
+      <c r="E30" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="23" t="s">
-        <v>368</v>
+      <c r="E31" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="23" t="s">
-        <v>383</v>
+      <c r="E32" s="22" t="s">
+        <v>375</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>383</v>
+      <c r="E33" s="22" t="s">
+        <v>375</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G33" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="23" t="s">
-        <v>383</v>
+      <c r="E34" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>383</v>
+      <c r="E35" s="22" t="s">
+        <v>405</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>382</v>
+      <c r="E36" s="22" t="s">
+        <v>374</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E37" s="23" t="s">
-        <v>384</v>
+      <c r="E37" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E38" s="23" t="s">
-        <v>384</v>
+      <c r="E38" s="22" t="s">
+        <v>376</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G38" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>385</v>
+      <c r="E39" s="22" t="s">
+        <v>377</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G39" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>371</v>
+      <c r="E40" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>369</v>
+      <c r="E41" s="22" t="s">
+        <v>361</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G41" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="23" t="s">
-        <v>371</v>
+      <c r="E42" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G42" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E43" s="23" t="s">
-        <v>364</v>
+      <c r="E43" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>201</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E44" s="23" t="s">
-        <v>386</v>
+      <c r="E44" s="22" t="s">
+        <v>378</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E45" s="23" t="s">
-        <v>363</v>
+      <c r="E45" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G45" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -5008,16 +5278,16 @@
         <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>372</v>
+        <v>262</v>
+      </c>
+      <c r="E46" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G46" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -5025,32 +5295,35 @@
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>263</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>374</v>
+        <v>262</v>
+      </c>
+      <c r="E47" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G47" t="s">
-        <v>322</v>
+        <v>317</v>
+      </c>
+      <c r="H47" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="22"/>
       <c r="H48" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="22"/>
       <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -5058,28 +5331,28 @@
         <v>123</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>373</v>
+        <v>262</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>365</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G50" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>378</v>
+      <c r="E51" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -5087,54 +5360,48 @@
         <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>340</v>
-      </c>
-      <c r="E52" s="23"/>
+        <v>334</v>
+      </c>
+      <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>341</v>
-      </c>
-      <c r="E53" s="23"/>
+        <v>335</v>
+      </c>
+      <c r="E53" s="22"/>
       <c r="H53" s="12"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E54" s="23" t="s">
-        <v>387</v>
+      <c r="E54" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C55" t="s">
-        <v>264</v>
-      </c>
-      <c r="E55" s="23"/>
+      <c r="E55" s="22"/>
       <c r="F55" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C56" t="s">
-        <v>264</v>
-      </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="22"/>
       <c r="F56" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -5142,92 +5409,240 @@
         <v>93</v>
       </c>
       <c r="C57" t="s">
-        <v>263</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>374</v>
+        <v>392</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G57" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E58" s="23" t="s">
-        <v>375</v>
+      <c r="C58" t="s">
+        <v>392</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>367</v>
       </c>
       <c r="H58" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="E59" s="23"/>
+        <v>339</v>
+      </c>
+      <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="1"/>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E61" s="26"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E62" s="26"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E63" s="26"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E64" s="26"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E65" s="26"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="E66" s="26"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="E67" s="26"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C68" t="s">
+        <v>392</v>
+      </c>
+      <c r="D68" t="s">
+        <v>396</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="G68" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C69" t="s">
+        <v>417</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G69" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E70" s="22"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C71" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G71" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C72" t="s">
+        <v>391</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G72" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E73" s="22"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B74" t="s">
+        <v>327</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G74" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B75" t="s">
         <v>332</v>
       </c>
-      <c r="E60" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G60" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B61" t="s">
-        <v>337</v>
-      </c>
-      <c r="C61" t="s">
-        <v>263</v>
-      </c>
-      <c r="E61" s="23"/>
-      <c r="F61" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="B62" t="s">
-        <v>338</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C75" t="s">
+        <v>262</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B76" t="s">
+        <v>333</v>
+      </c>
+      <c r="D76" t="s">
+        <v>383</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="G76" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B77" t="s">
+        <v>388</v>
+      </c>
+      <c r="C77" t="s">
+        <v>404</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G77" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="E62" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="G62" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B63" t="s">
-        <v>339</v>
-      </c>
-      <c r="E63" s="23"/>
+      <c r="B78" t="s">
+        <v>393</v>
+      </c>
+      <c r="D78" t="s">
+        <v>394</v>
+      </c>
+      <c r="E78" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5237,22 +5652,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -5260,13 +5676,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -5275,30 +5691,30 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="22"/>
       <c r="H2" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -5306,30 +5722,30 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>331</v>
+        <v>383</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>326</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>363</v>
+      <c r="E5" s="22" t="s">
+        <v>355</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -5337,41 +5753,41 @@
         <v>125</v>
       </c>
       <c r="C6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E6" s="23"/>
+        <v>262</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="H7" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="H8" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="23"/>
+      <c r="E9" s="22"/>
       <c r="H9" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -5379,58 +5795,58 @@
         <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>364</v>
+        <v>261</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>356</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="23" t="s">
-        <v>355</v>
+      <c r="E11" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="23" t="s">
-        <v>355</v>
+      <c r="E12" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="23" t="s">
-        <v>355</v>
+      <c r="E13" s="22" t="s">
+        <v>348</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -5438,77 +5854,73 @@
         <v>126</v>
       </c>
       <c r="C14" t="s">
-        <v>263</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>376</v>
+        <v>262</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G14" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>366</v>
+      <c r="E17" s="22" t="s">
+        <v>358</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="23" t="s">
-        <v>354</v>
+      <c r="E18" s="22" t="s">
+        <v>347</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G18" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E19" s="23" t="s">
-        <v>367</v>
+      <c r="E19" s="22" t="s">
+        <v>359</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5516,115 +5928,115 @@
         <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="23"/>
+        <v>319</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="23"/>
+        <v>320</v>
+      </c>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>383</v>
+      <c r="E22" s="22" t="s">
+        <v>406</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>388</v>
+      <c r="E23" s="22" t="s">
+        <v>379</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>368</v>
+      <c r="E24" s="22" t="s">
+        <v>360</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G24" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>357</v>
+      <c r="E25" s="22" t="s">
+        <v>350</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G25" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>371</v>
+      <c r="E26" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E27" s="23" t="s">
-        <v>371</v>
+      <c r="E27" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G27" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>371</v>
+      <c r="E28" s="22" t="s">
+        <v>363</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G28" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5632,11 +6044,11 @@
         <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>263</v>
-      </c>
-      <c r="E29" s="23"/>
+        <v>262</v>
+      </c>
+      <c r="E29" s="22"/>
       <c r="F29" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -5644,11 +6056,11 @@
         <v>137</v>
       </c>
       <c r="C30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E30" s="23"/>
+        <v>262</v>
+      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -5656,16 +6068,16 @@
         <v>138</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>377</v>
+        <v>262</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>369</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>199</v>
       </c>
       <c r="G31" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -5673,39 +6085,39 @@
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>374</v>
+        <v>392</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>366</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G32" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E33" s="23" t="s">
-        <v>379</v>
+      <c r="E33" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="22"/>
       <c r="H34" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -5713,30 +6125,30 @@
         <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>372</v>
+        <v>262</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>364</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G35" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="23" t="s">
-        <v>378</v>
+      <c r="E36" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G36" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -5744,16 +6156,16 @@
         <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>378</v>
+        <v>262</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G37" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -5761,59 +6173,53 @@
         <v>87</v>
       </c>
       <c r="B38" t="s">
-        <v>340</v>
-      </c>
-      <c r="E38" s="23"/>
+        <v>334</v>
+      </c>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B39" t="s">
-        <v>341</v>
-      </c>
-      <c r="E39" s="23"/>
+        <v>335</v>
+      </c>
+      <c r="E39" s="22"/>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="23" t="s">
-        <v>376</v>
+      <c r="E40" s="22" t="s">
+        <v>368</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C41" t="s">
-        <v>264</v>
-      </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C42" t="s">
-        <v>264</v>
-      </c>
-      <c r="E42" s="23" t="s">
-        <v>378</v>
+      <c r="E42" s="22" t="s">
+        <v>370</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G42" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -5821,110 +6227,227 @@
         <v>93</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>379</v>
+        <v>262</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>371</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G43" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="23"/>
+      <c r="E44" s="22"/>
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="E45" s="23"/>
+        <v>340</v>
+      </c>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="E46" s="23"/>
+        <v>341</v>
+      </c>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E47" s="23"/>
+        <v>342</v>
+      </c>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E48" s="23"/>
+        <v>390</v>
+      </c>
+      <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B49" t="s">
-        <v>332</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="G49" t="s">
-        <v>322</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B50" t="s">
-        <v>337</v>
-      </c>
-      <c r="C50" t="s">
-        <v>263</v>
-      </c>
-      <c r="E50" s="23"/>
-      <c r="F50" s="3" t="s">
-        <v>258</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B51" t="s">
-        <v>338</v>
-      </c>
-      <c r="D51" t="s">
+        <v>420</v>
+      </c>
+      <c r="E51" s="22"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" t="s">
         <v>392</v>
       </c>
-      <c r="E51" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="G51" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
+      <c r="D52" t="s">
+        <v>396</v>
+      </c>
+      <c r="E52" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="G52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C53" t="s">
+        <v>410</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G53" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C55" t="s">
+        <v>392</v>
+      </c>
+      <c r="D55" t="s">
+        <v>396</v>
+      </c>
+      <c r="E55" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="G55" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C56" t="s">
+        <v>391</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="G56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E57" s="22"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E58" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G58" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B52" t="s">
-        <v>339</v>
-      </c>
-      <c r="E52" s="23"/>
+      <c r="B59" t="s">
+        <v>332</v>
+      </c>
+      <c r="C59" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B60" t="s">
+        <v>333</v>
+      </c>
+      <c r="D60" t="s">
+        <v>383</v>
+      </c>
+      <c r="E60" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="G60" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B61" t="s">
+        <v>388</v>
+      </c>
+      <c r="C61" t="s">
+        <v>404</v>
+      </c>
+      <c r="E61" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="G61" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B62" t="s">
+        <v>393</v>
+      </c>
+      <c r="D62" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="G62" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5933,10 +6456,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5956,13 +6479,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -5971,30 +6494,30 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="24"/>
+      <c r="E2" s="23"/>
       <c r="H2" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -6002,57 +6525,57 @@
         <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>331</v>
+        <v>383</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="G4" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>363</v>
+      <c r="E5" s="23" t="s">
+        <v>355</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="24"/>
+      <c r="E6" s="23"/>
       <c r="H6" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="23"/>
       <c r="H7" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
       <c r="H8" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -6060,58 +6583,58 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E9" s="24" t="s">
-        <v>364</v>
+        <v>261</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>356</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>355</v>
+      <c r="E10" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>355</v>
+      <c r="E11" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>355</v>
+      <c r="E12" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G12" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -6119,90 +6642,86 @@
         <v>143</v>
       </c>
       <c r="C13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>376</v>
+        <v>262</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>368</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G13" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="11" t="s">
-        <v>246</v>
-      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="24"/>
-      <c r="F15" s="11" t="s">
-        <v>267</v>
-      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>366</v>
+      <c r="E16" s="23" t="s">
+        <v>358</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>354</v>
+      <c r="E17" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G17" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="24" t="s">
-        <v>367</v>
+      <c r="E18" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="24" t="s">
-        <v>367</v>
+      <c r="E19" s="23" t="s">
+        <v>359</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G19" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -6210,168 +6729,168 @@
         <v>64</v>
       </c>
       <c r="B20" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="24"/>
+        <v>319</v>
+      </c>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>325</v>
-      </c>
-      <c r="E21" s="24"/>
+        <v>320</v>
+      </c>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="24" t="s">
-        <v>383</v>
+      <c r="E22" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="24" t="s">
-        <v>354</v>
+      <c r="E23" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G23" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="24" t="s">
-        <v>388</v>
+      <c r="E24" s="23" t="s">
+        <v>379</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G24" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="24" t="s">
-        <v>368</v>
+      <c r="E25" s="23" t="s">
+        <v>360</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>206</v>
       </c>
       <c r="G25" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>354</v>
+      <c r="E26" s="23" t="s">
+        <v>347</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G26" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="24"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>369</v>
+      <c r="E28" s="23" t="s">
+        <v>361</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G28" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E29" s="24" t="s">
-        <v>357</v>
+      <c r="E29" s="23" t="s">
+        <v>350</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="24" t="s">
-        <v>371</v>
+      <c r="E30" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="24" t="s">
-        <v>371</v>
+      <c r="E31" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G31" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E32" s="24" t="s">
-        <v>371</v>
+      <c r="E32" s="23" t="s">
+        <v>363</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G32" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -6379,16 +6898,16 @@
         <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>372</v>
+        <v>262</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>364</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -6396,68 +6915,68 @@
         <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>373</v>
+        <v>262</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>365</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="24"/>
+      <c r="E35" s="23"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E36" s="24"/>
+      <c r="E36" s="23"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="24"/>
+      <c r="E37" s="23"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C38" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="24" t="s">
-        <v>374</v>
+        <v>262</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>366</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G38" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H38" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="24" t="s">
-        <v>379</v>
+      <c r="E39" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G39" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -6465,76 +6984,63 @@
         <v>87</v>
       </c>
       <c r="B40" t="s">
-        <v>340</v>
-      </c>
-      <c r="E40" s="24"/>
+        <v>334</v>
+      </c>
+      <c r="E40" s="23"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>341</v>
-      </c>
-      <c r="E41" s="24"/>
+        <v>335</v>
+      </c>
+      <c r="E41" s="23"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>376</v>
+      <c r="E42" s="23" t="s">
+        <v>368</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C43" t="s">
-        <v>264</v>
-      </c>
-      <c r="E43" s="24"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C44" t="s">
-        <v>264</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>373</v>
-      </c>
+      <c r="E44" s="23"/>
       <c r="F44" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G44" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C45" t="s">
-        <v>264</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>378</v>
-      </c>
+      <c r="E45" s="23"/>
       <c r="F45" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G45" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -6542,27 +7048,27 @@
         <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>263</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>379</v>
+        <v>262</v>
+      </c>
+      <c r="E46" s="23" t="s">
+        <v>371</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G46" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E47" s="24"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="13"/>
       <c r="G47" s="13"/>
       <c r="H47" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -6570,58 +7076,83 @@
         <v>225</v>
       </c>
       <c r="B48" t="s">
-        <v>332</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>377</v>
+        <v>327</v>
+      </c>
+      <c r="E48" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>199</v>
       </c>
       <c r="G48" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
-      </c>
-      <c r="E49" s="24"/>
+        <v>262</v>
+      </c>
+      <c r="E49" s="23"/>
       <c r="F49" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D50" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="25" t="s">
+        <v>387</v>
+      </c>
+      <c r="B51" t="s">
+        <v>388</v>
+      </c>
+      <c r="C51" t="s">
+        <v>404</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G51" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="G50" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="B51" t="s">
-        <v>339</v>
-      </c>
-      <c r="E51" s="24"/>
+      <c r="B52" t="s">
+        <v>393</v>
+      </c>
+      <c r="D52" t="s">
+        <v>394</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="G52" t="s">
+        <v>395</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6652,13 +7183,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -6667,10 +7198,10 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6678,48 +7209,48 @@
         <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>331</v>
+        <v>384</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>389</v>
+      <c r="E3" s="23" t="s">
+        <v>380</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -6727,141 +7258,141 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="24"/>
+        <v>319</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="24"/>
+        <v>320</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>358</v>
+      <c r="E8" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>359</v>
+      <c r="E9" s="23" t="s">
+        <v>352</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="24"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H10" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>390</v>
+      <c r="E11" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G11" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>390</v>
+      <c r="E12" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>390</v>
+      <c r="E13" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G13" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>361</v>
+      <c r="E14" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>361</v>
+      <c r="E15" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G15" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>390</v>
+      <c r="E16" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G16" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6869,16 +7400,16 @@
         <v>225</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
-      </c>
-      <c r="E17" s="24" t="s">
-        <v>377</v>
+        <v>327</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>231</v>
       </c>
       <c r="G17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -6911,13 +7442,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -6926,10 +7457,10 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6937,44 +7468,44 @@
         <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>331</v>
+        <v>384</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>352</v>
+      <c r="E3" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>295</v>
+      <c r="E4" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -6982,9 +7513,9 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="24"/>
+        <v>319</v>
+      </c>
+      <c r="E5" s="23"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
@@ -6994,9 +7525,9 @@
         <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
-      </c>
-      <c r="E6" s="24"/>
+        <v>320</v>
+      </c>
+      <c r="E6" s="23"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -7005,135 +7536,135 @@
       <c r="A7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>365</v>
+      <c r="E7" s="23" t="s">
+        <v>357</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>365</v>
+      <c r="E8" s="23" t="s">
+        <v>357</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>383</v>
+      <c r="E9" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>222</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>383</v>
+      <c r="E10" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>222</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>383</v>
+      <c r="E11" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>361</v>
+      <c r="E12" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G12" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>390</v>
+      <c r="E13" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G13" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>390</v>
+      <c r="E14" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E15" s="24"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>377</v>
+        <v>327</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>199</v>
       </c>
       <c r="G16" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -7146,7 +7677,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7166,13 +7697,13 @@
         <v>226</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>227</v>
@@ -7181,10 +7712,10 @@
         <v>228</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -7192,37 +7723,37 @@
         <v>172</v>
       </c>
       <c r="B2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>331</v>
+        <v>385</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="24"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>352</v>
+      <c r="E4" s="23" t="s">
+        <v>345</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="H4" s="13"/>
     </row>
@@ -7230,14 +7761,14 @@
       <c r="A5" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="24" t="s">
-        <v>295</v>
+      <c r="E5" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G5" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7245,9 +7776,9 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="24"/>
+        <v>319</v>
+      </c>
+      <c r="E6" s="23"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
@@ -7259,9 +7790,9 @@
         <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="24"/>
+        <v>320</v>
+      </c>
+      <c r="E7" s="23"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
@@ -7272,140 +7803,140 @@
       <c r="A8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="24" t="s">
-        <v>361</v>
+      <c r="E8" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>355</v>
+      <c r="E9" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E10" s="24" t="s">
-        <v>355</v>
+      <c r="E10" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G10" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="24" t="s">
-        <v>355</v>
+      <c r="E11" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>232</v>
       </c>
       <c r="G11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E12" s="24" t="s">
-        <v>302</v>
+      <c r="E12" s="23" t="s">
+        <v>300</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G12" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>304</v>
+      <c r="E13" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G13" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="24" t="s">
-        <v>390</v>
+      <c r="E14" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G14" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E15" s="24" t="s">
-        <v>390</v>
+      <c r="E15" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G15" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="24" t="s">
-        <v>390</v>
+      <c r="E16" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G16" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>390</v>
+      <c r="E17" s="23" t="s">
+        <v>381</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G17" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -7413,26 +7944,26 @@
         <v>225</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>377</v>
+        <v>327</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>369</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>306</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="24"/>
+        <v>304</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
